--- a/stock_historical_data/1mo/SAFARI.NS.xlsx
+++ b/stock_historical_data/1mo/SAFARI.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B2" t="n">
-        <v>295</v>
+        <v>292.7899513642971</v>
       </c>
       <c r="C2" t="n">
-        <v>309.5</v>
+        <v>315.2415032093327</v>
       </c>
       <c r="D2" t="n">
-        <v>267.6499938964844</v>
+        <v>237.5437605987175</v>
       </c>
       <c r="E2" t="n">
-        <v>287.0750122070312</v>
-      </c>
-      <c r="F2" t="n">
-        <v>286.2590026855469</v>
-      </c>
+        <v>293.8839416503906</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>91876</v>
+        <v>70494</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>40</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B3" t="n">
-        <v>281.0249938964844</v>
+        <v>295</v>
       </c>
       <c r="C3" t="n">
-        <v>299</v>
+        <v>309.5</v>
       </c>
       <c r="D3" t="n">
-        <v>265.0249938964844</v>
+        <v>267.6499938964844</v>
       </c>
       <c r="E3" t="n">
-        <v>284.7999877929688</v>
+        <v>287.0750122070312</v>
       </c>
       <c r="F3" t="n">
-        <v>283.990478515625</v>
+        <v>286.2590026855469</v>
       </c>
       <c r="G3" t="n">
-        <v>1453886</v>
+        <v>91876</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B4" t="n">
-        <v>289.875</v>
+        <v>281.0249938964844</v>
       </c>
       <c r="C4" t="n">
-        <v>328.1000061035156</v>
+        <v>299</v>
       </c>
       <c r="D4" t="n">
-        <v>282.9750061035156</v>
+        <v>265.0249938964844</v>
       </c>
       <c r="E4" t="n">
-        <v>309.6499938964844</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="F4" t="n">
-        <v>308.7698364257812</v>
+        <v>283.990478515625</v>
       </c>
       <c r="G4" t="n">
-        <v>757224</v>
+        <v>1453886</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B5" t="n">
+        <v>289.875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>328.1000061035156</v>
+      </c>
+      <c r="D5" t="n">
+        <v>282.9750061035156</v>
+      </c>
+      <c r="E5" t="n">
         <v>309.6499938964844</v>
       </c>
-      <c r="C5" t="n">
-        <v>324.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>297.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>318.2000122070312</v>
-      </c>
       <c r="F5" t="n">
-        <v>317.2955322265625</v>
+        <v>308.7698364257812</v>
       </c>
       <c r="G5" t="n">
-        <v>268318</v>
+        <v>757224</v>
       </c>
       <c r="H5" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B6" t="n">
+        <v>309.6499938964844</v>
+      </c>
+      <c r="C6" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="E6" t="n">
         <v>318.2000122070312</v>
       </c>
-      <c r="C6" t="n">
-        <v>349</v>
-      </c>
-      <c r="D6" t="n">
-        <v>276.0499877929688</v>
-      </c>
-      <c r="E6" t="n">
-        <v>288.7000122070312</v>
-      </c>
       <c r="F6" t="n">
-        <v>287.87939453125</v>
+        <v>317.2955322265625</v>
       </c>
       <c r="G6" t="n">
-        <v>788200</v>
+        <v>268318</v>
       </c>
       <c r="H6" t="n">
         <v>2020</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B7" t="n">
-        <v>289.0249938964844</v>
+        <v>318.2000122070312</v>
       </c>
       <c r="C7" t="n">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="D7" t="n">
-        <v>144.8000030517578</v>
+        <v>276.0499877929688</v>
       </c>
       <c r="E7" t="n">
-        <v>200.7749938964844</v>
+        <v>288.7000122070312</v>
       </c>
       <c r="F7" t="n">
-        <v>200.2042999267578</v>
+        <v>287.87939453125</v>
       </c>
       <c r="G7" t="n">
-        <v>389154</v>
+        <v>788200</v>
       </c>
       <c r="H7" t="n">
         <v>2020</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B8" t="n">
+        <v>289.0249938964844</v>
+      </c>
+      <c r="C8" t="n">
+        <v>315</v>
+      </c>
+      <c r="D8" t="n">
+        <v>144.8000030517578</v>
+      </c>
+      <c r="E8" t="n">
         <v>200.7749938964844</v>
       </c>
-      <c r="C8" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>179</v>
-      </c>
-      <c r="E8" t="n">
-        <v>191.6499938964844</v>
-      </c>
       <c r="F8" t="n">
-        <v>191.1052551269531</v>
+        <v>200.2042999267578</v>
       </c>
       <c r="G8" t="n">
-        <v>108064</v>
+        <v>389154</v>
       </c>
       <c r="H8" t="n">
         <v>2020</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B9" t="n">
+        <v>200.7749938964844</v>
+      </c>
+      <c r="C9" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>179</v>
+      </c>
+      <c r="E9" t="n">
         <v>191.6499938964844</v>
       </c>
-      <c r="C9" t="n">
-        <v>193.9499969482422</v>
-      </c>
-      <c r="D9" t="n">
-        <v>157</v>
-      </c>
-      <c r="E9" t="n">
-        <v>159.2250061035156</v>
-      </c>
       <c r="F9" t="n">
-        <v>158.7724151611328</v>
+        <v>191.1052551269531</v>
       </c>
       <c r="G9" t="n">
-        <v>405106</v>
+        <v>108064</v>
       </c>
       <c r="H9" t="n">
         <v>2020</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B10" t="n">
-        <v>165</v>
+        <v>191.6499938964844</v>
       </c>
       <c r="C10" t="n">
-        <v>231.5</v>
+        <v>193.9499969482422</v>
       </c>
       <c r="D10" t="n">
-        <v>162.5</v>
+        <v>157</v>
       </c>
       <c r="E10" t="n">
-        <v>183</v>
+        <v>159.2250061035156</v>
       </c>
       <c r="F10" t="n">
-        <v>182.4798278808594</v>
+        <v>158.7724151611328</v>
       </c>
       <c r="G10" t="n">
-        <v>797978</v>
+        <v>405106</v>
       </c>
       <c r="H10" t="n">
         <v>2020</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B11" t="n">
-        <v>185.8999938964844</v>
+        <v>165</v>
       </c>
       <c r="C11" t="n">
-        <v>200</v>
+        <v>231.5</v>
       </c>
       <c r="D11" t="n">
-        <v>177.5</v>
+        <v>162.5</v>
       </c>
       <c r="E11" t="n">
-        <v>182.8000030517578</v>
+        <v>183</v>
       </c>
       <c r="F11" t="n">
-        <v>182.2804107666016</v>
+        <v>182.4798278808594</v>
       </c>
       <c r="G11" t="n">
-        <v>347380</v>
+        <v>797978</v>
       </c>
       <c r="H11" t="n">
         <v>2020</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B12" t="n">
+        <v>185.8999938964844</v>
+      </c>
+      <c r="C12" t="n">
+        <v>200</v>
+      </c>
+      <c r="D12" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="E12" t="n">
         <v>182.8000030517578</v>
       </c>
-      <c r="C12" t="n">
-        <v>242.3500061035156</v>
-      </c>
-      <c r="D12" t="n">
-        <v>161.9499969482422</v>
-      </c>
-      <c r="E12" t="n">
-        <v>200.9750061035156</v>
-      </c>
       <c r="F12" t="n">
-        <v>200.4037475585938</v>
+        <v>182.2804107666016</v>
       </c>
       <c r="G12" t="n">
-        <v>3638928</v>
+        <v>347380</v>
       </c>
       <c r="H12" t="n">
         <v>2020</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B13" t="n">
+        <v>182.8000030517578</v>
+      </c>
+      <c r="C13" t="n">
+        <v>242.3500061035156</v>
+      </c>
+      <c r="D13" t="n">
+        <v>161.9499969482422</v>
+      </c>
+      <c r="E13" t="n">
         <v>200.9750061035156</v>
       </c>
-      <c r="C13" t="n">
-        <v>210.3999938964844</v>
-      </c>
-      <c r="D13" t="n">
-        <v>178</v>
-      </c>
-      <c r="E13" t="n">
-        <v>196.0749969482422</v>
-      </c>
       <c r="F13" t="n">
-        <v>195.5176696777344</v>
+        <v>200.4037475585938</v>
       </c>
       <c r="G13" t="n">
-        <v>685102</v>
+        <v>3638928</v>
       </c>
       <c r="H13" t="n">
         <v>2020</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B14" t="n">
-        <v>195.1999969482422</v>
+        <v>200.9750061035156</v>
       </c>
       <c r="C14" t="n">
-        <v>213.5</v>
+        <v>210.3999938964844</v>
       </c>
       <c r="D14" t="n">
-        <v>195.1999969482422</v>
+        <v>178</v>
       </c>
       <c r="E14" t="n">
-        <v>206.1499938964844</v>
+        <v>196.0749969482422</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5640258789062</v>
+        <v>195.5176696777344</v>
       </c>
       <c r="G14" t="n">
-        <v>386016</v>
+        <v>685102</v>
       </c>
       <c r="H14" t="n">
         <v>2020</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B15" t="n">
-        <v>205.3500061035156</v>
+        <v>195.1999969482422</v>
       </c>
       <c r="C15" t="n">
-        <v>294</v>
+        <v>213.5</v>
       </c>
       <c r="D15" t="n">
-        <v>204.25</v>
+        <v>195.1999969482422</v>
       </c>
       <c r="E15" t="n">
-        <v>270.5750122070312</v>
+        <v>206.1499938964844</v>
       </c>
       <c r="F15" t="n">
-        <v>269.805908203125</v>
+        <v>205.5640258789062</v>
       </c>
       <c r="G15" t="n">
-        <v>795878</v>
+        <v>386016</v>
       </c>
       <c r="H15" t="n">
         <v>2020</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B16" t="n">
-        <v>275</v>
+        <v>205.3500061035156</v>
       </c>
       <c r="C16" t="n">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="D16" t="n">
-        <v>226.1499938964844</v>
+        <v>204.25</v>
       </c>
       <c r="E16" t="n">
-        <v>258.9750061035156</v>
+        <v>270.5750122070312</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2388610839844</v>
+        <v>269.805908203125</v>
       </c>
       <c r="G16" t="n">
-        <v>767466</v>
+        <v>795878</v>
       </c>
       <c r="H16" t="n">
         <v>2020</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B17" t="n">
-        <v>253.5</v>
+        <v>275</v>
       </c>
       <c r="C17" t="n">
-        <v>297.5</v>
+        <v>322</v>
       </c>
       <c r="D17" t="n">
-        <v>253.5</v>
+        <v>226.1499938964844</v>
       </c>
       <c r="E17" t="n">
-        <v>274.9500122070312</v>
+        <v>258.9750061035156</v>
       </c>
       <c r="F17" t="n">
-        <v>274.1684875488281</v>
+        <v>258.2388610839844</v>
       </c>
       <c r="G17" t="n">
-        <v>484646</v>
+        <v>767466</v>
       </c>
       <c r="H17" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B18" t="n">
-        <v>272.5249938964844</v>
+        <v>253.5</v>
       </c>
       <c r="C18" t="n">
-        <v>338</v>
+        <v>297.5</v>
       </c>
       <c r="D18" t="n">
-        <v>259.2749938964844</v>
+        <v>253.5</v>
       </c>
       <c r="E18" t="n">
-        <v>318.7749938964844</v>
+        <v>274.9500122070312</v>
       </c>
       <c r="F18" t="n">
-        <v>317.868896484375</v>
+        <v>274.1684875488281</v>
       </c>
       <c r="G18" t="n">
-        <v>916846</v>
+        <v>484646</v>
       </c>
       <c r="H18" t="n">
         <v>2021</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B19" t="n">
-        <v>311.5</v>
+        <v>272.5249938964844</v>
       </c>
       <c r="C19" t="n">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="D19" t="n">
-        <v>292.5</v>
+        <v>259.2749938964844</v>
       </c>
       <c r="E19" t="n">
-        <v>303.125</v>
+        <v>318.7749938964844</v>
       </c>
       <c r="F19" t="n">
-        <v>302.2633666992188</v>
+        <v>317.868896484375</v>
       </c>
       <c r="G19" t="n">
-        <v>1133856</v>
+        <v>916846</v>
       </c>
       <c r="H19" t="n">
         <v>2021</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B20" t="n">
-        <v>303.1000061035156</v>
+        <v>311.5</v>
       </c>
       <c r="C20" t="n">
-        <v>323.25</v>
+        <v>365</v>
       </c>
       <c r="D20" t="n">
-        <v>271.0249938964844</v>
+        <v>292.5</v>
       </c>
       <c r="E20" t="n">
-        <v>309.8250122070312</v>
+        <v>303.125</v>
       </c>
       <c r="F20" t="n">
-        <v>308.9443664550781</v>
+        <v>302.2633666992188</v>
       </c>
       <c r="G20" t="n">
-        <v>543644</v>
+        <v>1133856</v>
       </c>
       <c r="H20" t="n">
         <v>2021</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B21" t="n">
-        <v>305.1749877929688</v>
+        <v>303.1000061035156</v>
       </c>
       <c r="C21" t="n">
-        <v>319.75</v>
+        <v>323.25</v>
       </c>
       <c r="D21" t="n">
-        <v>283.5</v>
+        <v>271.0249938964844</v>
       </c>
       <c r="E21" t="n">
-        <v>306.0750122070312</v>
+        <v>309.8250122070312</v>
       </c>
       <c r="F21" t="n">
-        <v>305.2050170898438</v>
+        <v>308.9443664550781</v>
       </c>
       <c r="G21" t="n">
-        <v>683948</v>
+        <v>543644</v>
       </c>
       <c r="H21" t="n">
         <v>2021</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B22" t="n">
-        <v>310</v>
+        <v>305.1749877929688</v>
       </c>
       <c r="C22" t="n">
-        <v>358.9249877929688</v>
+        <v>319.75</v>
       </c>
       <c r="D22" t="n">
-        <v>305.25</v>
+        <v>283.5</v>
       </c>
       <c r="E22" t="n">
-        <v>329.1749877929688</v>
+        <v>306.0750122070312</v>
       </c>
       <c r="F22" t="n">
-        <v>328.2393493652344</v>
+        <v>305.2050170898438</v>
       </c>
       <c r="G22" t="n">
-        <v>740914</v>
+        <v>683948</v>
       </c>
       <c r="H22" t="n">
         <v>2021</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B23" t="n">
-        <v>329.5</v>
+        <v>310</v>
       </c>
       <c r="C23" t="n">
-        <v>421.2250061035156</v>
+        <v>358.9249877929688</v>
       </c>
       <c r="D23" t="n">
-        <v>328.5</v>
+        <v>305.25</v>
       </c>
       <c r="E23" t="n">
-        <v>370.8250122070312</v>
+        <v>329.1749877929688</v>
       </c>
       <c r="F23" t="n">
-        <v>369.7709350585938</v>
+        <v>328.2393493652344</v>
       </c>
       <c r="G23" t="n">
-        <v>1379402</v>
+        <v>740914</v>
       </c>
       <c r="H23" t="n">
         <v>2021</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1687,36 +1679,36 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B24" t="n">
-        <v>373.4500122070312</v>
+        <v>329.5</v>
       </c>
       <c r="C24" t="n">
-        <v>429.5</v>
+        <v>421.2250061035156</v>
       </c>
       <c r="D24" t="n">
-        <v>337.2250061035156</v>
+        <v>328.5</v>
       </c>
       <c r="E24" t="n">
-        <v>424.3500061035156</v>
+        <v>370.8250122070312</v>
       </c>
       <c r="F24" t="n">
-        <v>423.143798828125</v>
+        <v>369.7709350585938</v>
       </c>
       <c r="G24" t="n">
-        <v>1818320</v>
+        <v>1379402</v>
       </c>
       <c r="H24" t="n">
         <v>2021</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1740,36 +1732,36 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B25" t="n">
-        <v>430</v>
+        <v>373.4500122070312</v>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>429.5</v>
       </c>
       <c r="D25" t="n">
-        <v>405</v>
+        <v>337.2250061035156</v>
       </c>
       <c r="E25" t="n">
-        <v>434.5</v>
+        <v>424.3500061035156</v>
       </c>
       <c r="F25" t="n">
-        <v>433.2649536132812</v>
+        <v>423.143798828125</v>
       </c>
       <c r="G25" t="n">
-        <v>1214232</v>
+        <v>1818320</v>
       </c>
       <c r="H25" t="n">
         <v>2021</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B26" t="n">
         <v>430</v>
       </c>
       <c r="C26" t="n">
-        <v>441.9750061035156</v>
+        <v>450</v>
       </c>
       <c r="D26" t="n">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="E26" t="n">
-        <v>415.7999877929688</v>
+        <v>434.5</v>
       </c>
       <c r="F26" t="n">
-        <v>414.6181030273438</v>
+        <v>433.2649536132812</v>
       </c>
       <c r="G26" t="n">
-        <v>760542</v>
+        <v>1214232</v>
       </c>
       <c r="H26" t="n">
         <v>2021</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B27" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C27" t="n">
-        <v>493.5</v>
+        <v>441.9750061035156</v>
       </c>
       <c r="D27" t="n">
-        <v>393.2000122070312</v>
+        <v>375</v>
       </c>
       <c r="E27" t="n">
-        <v>438.6000061035156</v>
+        <v>415.7999877929688</v>
       </c>
       <c r="F27" t="n">
-        <v>437.3533020019531</v>
+        <v>414.6181030273438</v>
       </c>
       <c r="G27" t="n">
-        <v>1555242</v>
+        <v>760542</v>
       </c>
       <c r="H27" t="n">
         <v>2021</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B28" t="n">
-        <v>428.5249938964844</v>
+        <v>428</v>
       </c>
       <c r="C28" t="n">
-        <v>460.375</v>
+        <v>493.5</v>
       </c>
       <c r="D28" t="n">
-        <v>415</v>
+        <v>393.2000122070312</v>
       </c>
       <c r="E28" t="n">
-        <v>445.6499938964844</v>
+        <v>438.6000061035156</v>
       </c>
       <c r="F28" t="n">
-        <v>444.3832702636719</v>
+        <v>437.3533020019531</v>
       </c>
       <c r="G28" t="n">
-        <v>951684</v>
+        <v>1555242</v>
       </c>
       <c r="H28" t="n">
         <v>2021</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B29" t="n">
-        <v>454.9750061035156</v>
+        <v>428.5249938964844</v>
       </c>
       <c r="C29" t="n">
-        <v>475</v>
+        <v>460.375</v>
       </c>
       <c r="D29" t="n">
-        <v>434.875</v>
+        <v>415</v>
       </c>
       <c r="E29" t="n">
-        <v>445.9750061035156</v>
+        <v>445.6499938964844</v>
       </c>
       <c r="F29" t="n">
-        <v>444.7073059082031</v>
+        <v>444.3832702636719</v>
       </c>
       <c r="G29" t="n">
-        <v>346842</v>
+        <v>951684</v>
       </c>
       <c r="H29" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B30" t="n">
-        <v>452.5</v>
+        <v>454.9750061035156</v>
       </c>
       <c r="C30" t="n">
-        <v>525.5250244140625</v>
+        <v>475</v>
       </c>
       <c r="D30" t="n">
-        <v>390.0249938964844</v>
+        <v>434.875</v>
       </c>
       <c r="E30" t="n">
-        <v>414.3999938964844</v>
+        <v>445.9750061035156</v>
       </c>
       <c r="F30" t="n">
-        <v>413.2220458984375</v>
+        <v>444.7073059082031</v>
       </c>
       <c r="G30" t="n">
-        <v>888650</v>
+        <v>346842</v>
       </c>
       <c r="H30" t="n">
         <v>2022</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2063,49 +2055,49 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B31" t="n">
+        <v>452.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>525.5250244140625</v>
+      </c>
+      <c r="D31" t="n">
+        <v>390.0249938964844</v>
+      </c>
+      <c r="E31" t="n">
         <v>414.3999938964844</v>
       </c>
-      <c r="C31" t="n">
-        <v>497.0249938964844</v>
-      </c>
-      <c r="D31" t="n">
-        <v>407.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>487.25</v>
-      </c>
       <c r="F31" t="n">
-        <v>485.8650207519531</v>
+        <v>413.2220458984375</v>
       </c>
       <c r="G31" t="n">
-        <v>581662</v>
+        <v>888650</v>
       </c>
       <c r="H31" t="n">
         <v>2022</v>
       </c>
       <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" t="n">
         <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B32" t="n">
-        <v>485</v>
+        <v>414.3999938964844</v>
       </c>
       <c r="C32" t="n">
-        <v>508.2000122070312</v>
+        <v>497.0249938964844</v>
       </c>
       <c r="D32" t="n">
-        <v>462.5</v>
+        <v>407.5</v>
       </c>
       <c r="E32" t="n">
-        <v>470.875</v>
+        <v>487.25</v>
       </c>
       <c r="F32" t="n">
-        <v>469.5365600585938</v>
+        <v>485.8650207519531</v>
       </c>
       <c r="G32" t="n">
-        <v>415156</v>
+        <v>581662</v>
       </c>
       <c r="H32" t="n">
         <v>2022</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B33" t="n">
-        <v>477.9500122070312</v>
+        <v>485</v>
       </c>
       <c r="C33" t="n">
-        <v>509</v>
+        <v>508.2000122070312</v>
       </c>
       <c r="D33" t="n">
-        <v>409.6000061035156</v>
+        <v>462.5</v>
       </c>
       <c r="E33" t="n">
-        <v>458.5</v>
+        <v>470.875</v>
       </c>
       <c r="F33" t="n">
-        <v>457.1967163085938</v>
+        <v>469.5365600585938</v>
       </c>
       <c r="G33" t="n">
-        <v>573736</v>
+        <v>415156</v>
       </c>
       <c r="H33" t="n">
         <v>2022</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B34" t="n">
-        <v>462.2999877929688</v>
+        <v>477.9500122070312</v>
       </c>
       <c r="C34" t="n">
-        <v>487.1749877929688</v>
+        <v>509</v>
       </c>
       <c r="D34" t="n">
-        <v>441.7749938964844</v>
+        <v>409.6000061035156</v>
       </c>
       <c r="E34" t="n">
-        <v>461.3999938964844</v>
+        <v>458.5</v>
       </c>
       <c r="F34" t="n">
-        <v>460.0885314941406</v>
+        <v>457.1967163085938</v>
       </c>
       <c r="G34" t="n">
-        <v>408032</v>
+        <v>573736</v>
       </c>
       <c r="H34" t="n">
         <v>2022</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B35" t="n">
-        <v>460.3500061035156</v>
+        <v>462.2999877929688</v>
       </c>
       <c r="C35" t="n">
-        <v>597</v>
+        <v>487.1749877929688</v>
       </c>
       <c r="D35" t="n">
-        <v>456.8250122070312</v>
+        <v>441.7749938964844</v>
       </c>
       <c r="E35" t="n">
-        <v>555.875</v>
+        <v>461.3999938964844</v>
       </c>
       <c r="F35" t="n">
-        <v>554.2949829101562</v>
+        <v>460.0885314941406</v>
       </c>
       <c r="G35" t="n">
-        <v>809680</v>
+        <v>408032</v>
       </c>
       <c r="H35" t="n">
         <v>2022</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B36" t="n">
-        <v>562.7249755859375</v>
+        <v>460.3500061035156</v>
       </c>
       <c r="C36" t="n">
-        <v>788</v>
+        <v>597</v>
       </c>
       <c r="D36" t="n">
-        <v>556.1749877929688</v>
+        <v>456.8250122070312</v>
       </c>
       <c r="E36" t="n">
-        <v>772.5499877929688</v>
+        <v>555.875</v>
       </c>
       <c r="F36" t="n">
-        <v>770.9796142578125</v>
+        <v>554.2949829101562</v>
       </c>
       <c r="G36" t="n">
-        <v>2126810</v>
+        <v>809680</v>
       </c>
       <c r="H36" t="n">
         <v>2022</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B37" t="n">
-        <v>772.5</v>
+        <v>562.7249755859375</v>
       </c>
       <c r="C37" t="n">
-        <v>865.5</v>
+        <v>788</v>
       </c>
       <c r="D37" t="n">
-        <v>715</v>
+        <v>556.1749877929688</v>
       </c>
       <c r="E37" t="n">
-        <v>824.7249755859375</v>
+        <v>772.5499877929688</v>
       </c>
       <c r="F37" t="n">
-        <v>823.0484619140625</v>
+        <v>770.9796142578125</v>
       </c>
       <c r="G37" t="n">
-        <v>1632442</v>
+        <v>2126810</v>
       </c>
       <c r="H37" t="n">
         <v>2022</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B38" t="n">
-        <v>823.5</v>
+        <v>772.5</v>
       </c>
       <c r="C38" t="n">
-        <v>954.5999755859375</v>
+        <v>865.5</v>
       </c>
       <c r="D38" t="n">
-        <v>813.0999755859375</v>
+        <v>715</v>
       </c>
       <c r="E38" t="n">
-        <v>928.7249755859375</v>
+        <v>824.7249755859375</v>
       </c>
       <c r="F38" t="n">
-        <v>926.8370971679688</v>
+        <v>823.0484619140625</v>
       </c>
       <c r="G38" t="n">
-        <v>901740</v>
+        <v>1632442</v>
       </c>
       <c r="H38" t="n">
         <v>2022</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B39" t="n">
+        <v>823.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>954.5999755859375</v>
+      </c>
+      <c r="D39" t="n">
+        <v>813.0999755859375</v>
+      </c>
+      <c r="E39" t="n">
         <v>928.7249755859375</v>
       </c>
-      <c r="C39" t="n">
-        <v>988.5</v>
-      </c>
-      <c r="D39" t="n">
-        <v>806.875</v>
-      </c>
-      <c r="E39" t="n">
-        <v>816</v>
-      </c>
       <c r="F39" t="n">
-        <v>814.3412475585938</v>
+        <v>926.8370971679688</v>
       </c>
       <c r="G39" t="n">
-        <v>2035152</v>
+        <v>901740</v>
       </c>
       <c r="H39" t="n">
         <v>2022</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B40" t="n">
-        <v>826.7999877929688</v>
+        <v>928.7249755859375</v>
       </c>
       <c r="C40" t="n">
-        <v>883.0250244140625</v>
+        <v>988.5</v>
       </c>
       <c r="D40" t="n">
-        <v>785.7000122070312</v>
+        <v>806.875</v>
       </c>
       <c r="E40" t="n">
-        <v>841.3499755859375</v>
+        <v>816</v>
       </c>
       <c r="F40" t="n">
-        <v>839.6397094726562</v>
+        <v>814.3412475585938</v>
       </c>
       <c r="G40" t="n">
-        <v>624674</v>
+        <v>2035152</v>
       </c>
       <c r="H40" t="n">
         <v>2022</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B41" t="n">
-        <v>842.3250122070312</v>
+        <v>826.7999877929688</v>
       </c>
       <c r="C41" t="n">
-        <v>952</v>
+        <v>883.0250244140625</v>
       </c>
       <c r="D41" t="n">
-        <v>835.2000122070312</v>
+        <v>785.7000122070312</v>
       </c>
       <c r="E41" t="n">
-        <v>889.8499755859375</v>
+        <v>841.3499755859375</v>
       </c>
       <c r="F41" t="n">
-        <v>888.0411376953125</v>
+        <v>839.6397094726562</v>
       </c>
       <c r="G41" t="n">
-        <v>534648</v>
+        <v>624674</v>
       </c>
       <c r="H41" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B42" t="n">
-        <v>891.0499877929688</v>
+        <v>842.3250122070312</v>
       </c>
       <c r="C42" t="n">
-        <v>1065</v>
+        <v>952</v>
       </c>
       <c r="D42" t="n">
-        <v>865.1500244140625</v>
+        <v>835.2000122070312</v>
       </c>
       <c r="E42" t="n">
-        <v>1010.625</v>
+        <v>889.8499755859375</v>
       </c>
       <c r="F42" t="n">
-        <v>1008.570617675781</v>
+        <v>888.0411376953125</v>
       </c>
       <c r="G42" t="n">
-        <v>1597616</v>
+        <v>534648</v>
       </c>
       <c r="H42" t="n">
         <v>2023</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B43" t="n">
+        <v>891.0499877929688</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1065</v>
+      </c>
+      <c r="D43" t="n">
+        <v>865.1500244140625</v>
+      </c>
+      <c r="E43" t="n">
         <v>1010.625</v>
       </c>
-      <c r="C43" t="n">
-        <v>1099.974975585938</v>
-      </c>
-      <c r="D43" t="n">
-        <v>925.25</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1023.924987792969</v>
-      </c>
       <c r="F43" t="n">
-        <v>1022.637634277344</v>
+        <v>1008.570617675781</v>
       </c>
       <c r="G43" t="n">
-        <v>1160420</v>
+        <v>1597616</v>
       </c>
       <c r="H43" t="n">
         <v>2023</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B44" t="n">
-        <v>1037.5</v>
+        <v>1010.625</v>
       </c>
       <c r="C44" t="n">
-        <v>1249.974975585938</v>
+        <v>1099.974975585938</v>
       </c>
       <c r="D44" t="n">
-        <v>1023.049987792969</v>
+        <v>925.25</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.425048828125</v>
+        <v>1023.924987792969</v>
       </c>
       <c r="F44" t="n">
-        <v>1219.889404296875</v>
+        <v>1022.637634277344</v>
       </c>
       <c r="G44" t="n">
-        <v>948194</v>
+        <v>1160420</v>
       </c>
       <c r="H44" t="n">
         <v>2023</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B45" t="n">
+        <v>1037.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1249.974975585938</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1023.049987792969</v>
+      </c>
+      <c r="E45" t="n">
         <v>1221.425048828125</v>
       </c>
-      <c r="C45" t="n">
-        <v>1384.949951171875</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1188.650024414062</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1357.5</v>
-      </c>
       <c r="F45" t="n">
-        <v>1355.793212890625</v>
+        <v>1219.889404296875</v>
       </c>
       <c r="G45" t="n">
-        <v>1786114</v>
+        <v>948194</v>
       </c>
       <c r="H45" t="n">
         <v>2023</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B46" t="n">
-        <v>1343.425048828125</v>
+        <v>1221.425048828125</v>
       </c>
       <c r="C46" t="n">
-        <v>1535.625</v>
+        <v>1384.949951171875</v>
       </c>
       <c r="D46" t="n">
-        <v>1343.425048828125</v>
+        <v>1188.650024414062</v>
       </c>
       <c r="E46" t="n">
-        <v>1485.050048828125</v>
+        <v>1357.5</v>
       </c>
       <c r="F46" t="n">
-        <v>1483.182861328125</v>
+        <v>1355.793212890625</v>
       </c>
       <c r="G46" t="n">
-        <v>1381716</v>
+        <v>1786114</v>
       </c>
       <c r="H46" t="n">
         <v>2023</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B47" t="n">
-        <v>1497</v>
+        <v>1343.425048828125</v>
       </c>
       <c r="C47" t="n">
-        <v>1585.474975585938</v>
+        <v>1535.625</v>
       </c>
       <c r="D47" t="n">
-        <v>1371.025024414062</v>
+        <v>1343.425048828125</v>
       </c>
       <c r="E47" t="n">
-        <v>1432.175048828125</v>
+        <v>1485.050048828125</v>
       </c>
       <c r="F47" t="n">
-        <v>1430.374389648438</v>
+        <v>1483.182861328125</v>
       </c>
       <c r="G47" t="n">
-        <v>1097604</v>
+        <v>1381716</v>
       </c>
       <c r="H47" t="n">
         <v>2023</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B48" t="n">
-        <v>1448.474975585938</v>
+        <v>1497</v>
       </c>
       <c r="C48" t="n">
-        <v>1890</v>
+        <v>1585.474975585938</v>
       </c>
       <c r="D48" t="n">
-        <v>1422.5</v>
+        <v>1371.025024414062</v>
       </c>
       <c r="E48" t="n">
-        <v>1842.300048828125</v>
+        <v>1432.175048828125</v>
       </c>
       <c r="F48" t="n">
-        <v>1841.196166992188</v>
+        <v>1430.374389648438</v>
       </c>
       <c r="G48" t="n">
-        <v>2867824</v>
+        <v>1097604</v>
       </c>
       <c r="H48" t="n">
         <v>2023</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B49" t="n">
-        <v>1833.025024414062</v>
+        <v>1448.474975585938</v>
       </c>
       <c r="C49" t="n">
-        <v>1993.974975585938</v>
+        <v>1890</v>
       </c>
       <c r="D49" t="n">
-        <v>1715.275024414062</v>
+        <v>1422.5</v>
       </c>
       <c r="E49" t="n">
-        <v>1957.949951171875</v>
+        <v>1842.300048828125</v>
       </c>
       <c r="F49" t="n">
-        <v>1956.776733398438</v>
+        <v>1841.196166992188</v>
       </c>
       <c r="G49" t="n">
-        <v>2944798</v>
+        <v>2867824</v>
       </c>
       <c r="H49" t="n">
         <v>2023</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3070,31 +3062,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B50" t="n">
+        <v>1833.025024414062</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1993.974975585938</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1715.275024414062</v>
+      </c>
+      <c r="E50" t="n">
         <v>1957.949951171875</v>
       </c>
-      <c r="C50" t="n">
-        <v>2270</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1810.025024414062</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2067.050048828125</v>
-      </c>
       <c r="F50" t="n">
-        <v>2065.8115234375</v>
+        <v>1956.776733398438</v>
       </c>
       <c r="G50" t="n">
-        <v>2436082</v>
+        <v>2944798</v>
       </c>
       <c r="H50" t="n">
         <v>2023</v>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B51" t="n">
-        <v>2071.47509765625</v>
+        <v>1957.949951171875</v>
       </c>
       <c r="C51" t="n">
-        <v>2315</v>
+        <v>2270</v>
       </c>
       <c r="D51" t="n">
-        <v>1980.5</v>
+        <v>1810.025024414062</v>
       </c>
       <c r="E51" t="n">
-        <v>2213.925048828125</v>
+        <v>2067.050048828125</v>
       </c>
       <c r="F51" t="n">
-        <v>2212.598388671875</v>
+        <v>2065.8115234375</v>
       </c>
       <c r="G51" t="n">
-        <v>2103014</v>
+        <v>2436082</v>
       </c>
       <c r="H51" t="n">
         <v>2023</v>
       </c>
       <c r="I51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B52" t="n">
-        <v>2240</v>
+        <v>2071.47509765625</v>
       </c>
       <c r="C52" t="n">
-        <v>2274</v>
+        <v>2315</v>
       </c>
       <c r="D52" t="n">
-        <v>1881.650024414062</v>
+        <v>1980.5</v>
       </c>
       <c r="E52" t="n">
-        <v>1951.349975585938</v>
+        <v>2213.925048828125</v>
       </c>
       <c r="F52" t="n">
-        <v>1951.349975585938</v>
+        <v>2212.598388671875</v>
       </c>
       <c r="G52" t="n">
-        <v>2399661</v>
+        <v>2103014</v>
       </c>
       <c r="H52" t="n">
         <v>2023</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B53" t="n">
-        <v>1940</v>
+        <v>2240</v>
       </c>
       <c r="C53" t="n">
-        <v>2039.900024414062</v>
+        <v>2274</v>
       </c>
       <c r="D53" t="n">
-        <v>1831.5</v>
+        <v>1881.650024414062</v>
       </c>
       <c r="E53" t="n">
-        <v>2031.900024414062</v>
+        <v>1951.349975585938</v>
       </c>
       <c r="F53" t="n">
-        <v>2031.900024414062</v>
+        <v>1951.349975585938</v>
       </c>
       <c r="G53" t="n">
-        <v>2084956</v>
+        <v>2399661</v>
       </c>
       <c r="H53" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B54" t="n">
-        <v>2040.25</v>
+        <v>1940</v>
       </c>
       <c r="C54" t="n">
-        <v>2140.39990234375</v>
+        <v>2039.900024414062</v>
       </c>
       <c r="D54" t="n">
-        <v>1875</v>
+        <v>1831.5</v>
       </c>
       <c r="E54" t="n">
-        <v>2036.199951171875</v>
+        <v>2031.900024414062</v>
       </c>
       <c r="F54" t="n">
-        <v>2036.199951171875</v>
+        <v>2031.900024414062</v>
       </c>
       <c r="G54" t="n">
-        <v>1054681</v>
+        <v>2084956</v>
       </c>
       <c r="H54" t="n">
         <v>2024</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B55" t="n">
-        <v>2031.400024414062</v>
+        <v>2040.25</v>
       </c>
       <c r="C55" t="n">
-        <v>2090</v>
+        <v>2140.39990234375</v>
       </c>
       <c r="D55" t="n">
-        <v>1648.599975585938</v>
+        <v>1875</v>
       </c>
       <c r="E55" t="n">
-        <v>1725.75</v>
+        <v>2036.199951171875</v>
       </c>
       <c r="F55" t="n">
-        <v>1725.75</v>
+        <v>2036.199951171875</v>
       </c>
       <c r="G55" t="n">
-        <v>1186808</v>
+        <v>1054681</v>
       </c>
       <c r="H55" t="n">
         <v>2024</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,45 +3366,45 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B56" t="n">
-        <v>1724.050048828125</v>
+        <v>2031.400024414062</v>
       </c>
       <c r="C56" t="n">
-        <v>2175</v>
+        <v>2090</v>
       </c>
       <c r="D56" t="n">
-        <v>1724</v>
+        <v>1648.599975585938</v>
       </c>
       <c r="E56" t="n">
-        <v>2113.550048828125</v>
+        <v>1725.75</v>
       </c>
       <c r="F56" t="n">
-        <v>2113.550048828125</v>
+        <v>1725.75</v>
       </c>
       <c r="G56" t="n">
-        <v>1502509</v>
+        <v>1186808</v>
       </c>
       <c r="H56" t="n">
         <v>2024</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,45 +3419,45 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B57" t="n">
+        <v>1724.050048828125</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2175</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E57" t="n">
         <v>2113.550048828125</v>
       </c>
-      <c r="C57" t="n">
-        <v>2119.300048828125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1941.949951171875</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1967.150024414062</v>
-      </c>
       <c r="F57" t="n">
-        <v>1967.150024414062</v>
+        <v>2113.550048828125</v>
       </c>
       <c r="G57" t="n">
-        <v>1005540</v>
+        <v>1502509</v>
       </c>
       <c r="H57" t="n">
         <v>2024</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3494,56 +3486,514 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B58" t="n">
-        <v>1975</v>
+        <v>2113.550048828125</v>
       </c>
       <c r="C58" t="n">
-        <v>2056.449951171875</v>
+        <v>2119.300048828125</v>
       </c>
       <c r="D58" t="n">
-        <v>1850</v>
+        <v>1941.949951171875</v>
       </c>
       <c r="E58" t="n">
-        <v>2014.300048828125</v>
+        <v>1967.150024414062</v>
       </c>
       <c r="F58" t="n">
-        <v>2014.300048828125</v>
+        <v>1967.150024414062</v>
       </c>
       <c r="G58" t="n">
-        <v>300035</v>
+        <v>1005540</v>
       </c>
       <c r="H58" t="n">
         <v>2024</v>
       </c>
       <c r="I58" t="n">
+        <v>5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>18</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2056.449951171875</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2014.300048828125</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2014.300048828125</v>
+      </c>
+      <c r="G59" t="n">
+        <v>300035</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I59" t="n">
         <v>6</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
         <v>22</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2063.24689725676</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2346.868445572791</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1997.334847295992</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2068.240234375</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>1283385</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>27</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2098.612859061618</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2522.392904324026</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2026.708720273029</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2474.623291015625</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>4567059</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>31</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2486.415724523024</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2612.08565111417</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2309.528432223758</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2349.552978515625</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>1701967</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>35</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2348.50368467214</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2698.280829197778</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2142.934708815107</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2205.994384765625</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>1710898</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>40</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2210.691445230129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2607.338604033495</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2149.130574156394</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2583.5537109375</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>1054115</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>44</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2586</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2744.699951171875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2480</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2601.75</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>793276</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I65" t="n">
+        <v>12</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>48</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2613.449951171875</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2686.300048828125</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2248.25</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2410</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>1548540</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2419</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2543.949951171875</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1861.550048828125</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2136.050048828125</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>2047284</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2163</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1976.5</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>537289</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
